--- a/grupos/missao-rotas/materiais/cronograma_rotas.xlsx
+++ b/grupos/missao-rotas/materiais/cronograma_rotas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno.DSN5131112167\Desktop\conteudo\EcoSystem\ecosystem\missao-rotas\materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\teste\ecosystem\grupos\missao-rotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Item</t>
   </si>
@@ -131,38 +131,35 @@
     <t>ADM</t>
   </si>
   <si>
-    <t xml:space="preserve"> (%) Total (600%)</t>
-  </si>
-  <si>
-    <t>Revisão: 1.5</t>
-  </si>
-  <si>
     <t>Data: 08/03/2021</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Todos testarão no insomnia OK</t>
-  </si>
-  <si>
-    <t>READ, CREATE,DELETE,UPDATE OK</t>
-  </si>
-  <si>
-    <t>INICIO OK</t>
-  </si>
-  <si>
-    <t>FASE FINAL OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OK</t>
+    <t xml:space="preserve"> (%) Total (700%)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>GERAL</t>
+  </si>
+  <si>
+    <t>TODOS</t>
+  </si>
+  <si>
+    <t>Revisão: 1.6</t>
+  </si>
+  <si>
+    <t>5 SEMANAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,11 +198,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -240,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -412,19 +415,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -441,116 +468,121 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,7 +617,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34803E61-32B9-456D-8F13-403339D79775}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34803E61-32B9-456D-8F13-403339D79775}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +949,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -933,510 +965,523 @@
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="75" customWidth="1"/>
+    <col min="15" max="15" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="45" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="46" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+    </row>
+    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
+    </row>
+    <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+    </row>
+    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
-    </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-    </row>
-    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
-    </row>
-    <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-    </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="36" t="s">
+      <c r="O6" s="47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="J7" s="19">
         <v>2</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="K7" s="19">
         <v>3</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36" t="s">
+      <c r="L7" s="19">
         <v>4</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="29">
+      <c r="M7" s="19">
         <v>1</v>
       </c>
-      <c r="J7" s="29">
-        <v>2</v>
-      </c>
-      <c r="K7" s="29">
-        <v>3</v>
-      </c>
-      <c r="L7" s="29">
-        <v>4</v>
-      </c>
-      <c r="M7" s="29">
-        <v>1</v>
-      </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="48"/>
-    </row>
-    <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="47"/>
+    </row>
+    <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="16">
+      <c r="F8" s="34"/>
+      <c r="G8" s="14">
         <v>44228</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>44229</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="24">
+      <c r="I8" s="17"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="23">
         <v>1</v>
       </c>
-      <c r="O8" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="O8" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="16">
+      <c r="F9" s="34"/>
+      <c r="G9" s="14">
         <v>44228</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>44246</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="24">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="23">
         <v>1</v>
       </c>
-      <c r="O9" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="O9" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="16">
+      <c r="F10" s="34"/>
+      <c r="G10" s="14">
         <v>44228</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>44246</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="24">
+      <c r="I10" s="16"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23">
         <v>1</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="16">
+      <c r="F11" s="34"/>
+      <c r="G11" s="14">
         <v>44228</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>44246</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="24">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="23">
         <v>1</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="16">
+      <c r="F12" s="34"/>
+      <c r="G12" s="14">
         <v>44228</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <v>44246</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="24">
+      <c r="I12" s="16"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23">
         <v>1</v>
       </c>
-      <c r="O12" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="O12" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="16">
+      <c r="F13" s="34"/>
+      <c r="G13" s="14">
         <v>44228</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>44246</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="24">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="23">
         <v>1</v>
       </c>
-      <c r="O13" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="O13" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="19">
+      <c r="F14" s="34"/>
+      <c r="G14" s="14">
         <v>44249</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="25">
         <v>44253</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="25" t="s">
-        <v>41</v>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="23">
+        <v>1</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="25"/>
-    </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="10">
+      <c r="N15" s="20"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="3"/>
+      <c r="C16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="53"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="33">
+      <c r="N16" s="24">
         <f>SUM(N8:N15)</f>
-        <v>6</v>
-      </c>
-      <c r="O16" s="26"/>
+        <v>7</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="21" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="I3:O3"/>
